--- a/RPA/UiPath/Class.xlsx
+++ b/RPA/UiPath/Class.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="116">
   <si>
     <r>
       <t>1</t>
@@ -349,31 +349,6 @@
         <family val="1"/>
       </rPr>
       <t>Web</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color rgb="FF4F81BD"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF4F81BD"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Citrix</t>
     </r>
   </si>
   <si>
@@ -3091,10 +3066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A79" sqref="A65:A79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3105,16 +3080,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18">
@@ -3123,10 +3098,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
@@ -3135,10 +3110,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5">
@@ -3147,10 +3122,10 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18">
@@ -3158,13 +3133,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5">
@@ -3172,13 +3147,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5">
@@ -3186,13 +3161,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5">
@@ -3200,13 +3175,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5">
@@ -3214,13 +3189,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18">
@@ -3228,13 +3203,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5">
@@ -3242,13 +3217,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5">
@@ -3256,13 +3231,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5">
@@ -3270,13 +3245,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5">
@@ -3284,43 +3259,49 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5">
-      <c r="A15" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="18">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:4" ht="16.5">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5">
@@ -3328,13 +3309,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5">
@@ -3342,13 +3323,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5">
@@ -3356,13 +3337,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5">
@@ -3370,13 +3351,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5">
@@ -3384,49 +3365,49 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5">
-      <c r="A23" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="16.5">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5">
@@ -3434,13 +3415,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5">
@@ -3448,13 +3429,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5">
@@ -3462,13 +3443,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5">
@@ -3476,13 +3457,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5">
@@ -3490,13 +3471,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5">
@@ -3504,13 +3485,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5">
@@ -3518,129 +3499,129 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5">
       <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="18">
+      <c r="A34" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5">
-      <c r="A34" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="18">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:4" ht="16.5">
+      <c r="A35" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="16.5">
       <c r="A36" s="4" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5">
-      <c r="A37" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18">
+      <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18">
-      <c r="A38" s="2" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5">
+      <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="16.5">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5">
-      <c r="A40" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18">
+      <c r="A40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18">
-      <c r="A41" s="2" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5">
+      <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="16.5">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5">
@@ -3648,13 +3629,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5">
@@ -3662,13 +3643,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5">
@@ -3676,13 +3657,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5">
@@ -3690,13 +3671,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5">
@@ -3704,13 +3685,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5">
@@ -3718,13 +3699,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5">
@@ -3732,13 +3713,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5">
@@ -3746,13 +3727,13 @@
         <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5">
@@ -3760,13 +3741,13 @@
         <v>46</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5">
@@ -3774,13 +3755,13 @@
         <v>47</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5">
@@ -3788,49 +3769,49 @@
         <v>48</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5">
-      <c r="A54" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18">
+      <c r="A54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="18">
-      <c r="A55" s="2" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="16.5">
+      <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="16.5">
       <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5">
@@ -3838,13 +3819,13 @@
         <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5">
@@ -3852,13 +3833,13 @@
         <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5">
@@ -3866,13 +3847,13 @@
         <v>54</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5">
@@ -3880,13 +3861,13 @@
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5">
@@ -3894,13 +3875,13 @@
         <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5">
@@ -3908,39 +3889,33 @@
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5">
       <c r="A63" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" ht="18">
+      <c r="A64" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5">
-      <c r="A64" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" ht="18">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:4" ht="16.5">
+      <c r="A65" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="3"/>
@@ -3963,16 +3938,16 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" ht="16.5">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:4" ht="18">
+      <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" ht="18">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:4" ht="16.5">
+      <c r="A69" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="3"/>
@@ -4019,16 +3994,16 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" ht="16.5">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:4" ht="18">
+      <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" ht="18">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:4" ht="16.5">
+      <c r="A76" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="3"/>
@@ -4051,16 +4026,16 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" ht="16.5">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:4" ht="18">
+      <c r="A79" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" ht="18">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:4" ht="16.5">
+      <c r="A80" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="3"/>
@@ -4115,16 +4090,16 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" ht="16.5">
-      <c r="A87" s="4" t="s">
+    <row r="87" spans="1:4" ht="18">
+      <c r="A87" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" ht="18">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:4" ht="16.5">
+      <c r="A88" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B88" s="3"/>
@@ -4147,16 +4122,16 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" ht="16.5">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="1:4" ht="18">
+      <c r="A91" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" ht="18">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:4" ht="16.5">
+      <c r="A92" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B92" s="3"/>
@@ -4259,16 +4234,16 @@
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" ht="16.5">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:4" ht="18">
+      <c r="A105" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" ht="18">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:4" ht="16.5">
+      <c r="A106" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B106" s="3"/>
@@ -4282,14 +4257,6 @@
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4" ht="16.5">
-      <c r="A108" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4312,23 +4279,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
         <v>114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
